--- a/data/data_user.xlsx
+++ b/data/data_user.xlsx
@@ -53,7 +53,7 @@
     <t>storeManager</t>
   </si>
   <si>
-    <t>web1/web2/web5/web7</t>
+    <t>web1/web5/web2</t>
   </si>
 </sst>
 </file>
@@ -993,7 +993,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
